--- a/CASUAL/LA DSWD-CCR/DE CASTRO, CHRISTINE JEAN.xlsx
+++ b/CASUAL/LA DSWD-CCR/DE CASTRO, CHRISTINE JEAN.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="98">
   <si>
     <t>PERIOD</t>
   </si>
@@ -324,6 +324,9 @@
   </si>
   <si>
     <t>12/11,14,15,27,29/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1009,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K129" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1335,12 +1338,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K129"/>
+  <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A100" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A88" activePane="bottomLeft"/>
       <selection activeCell="B1" sqref="B1:C1"/>
-      <selection pane="bottomLeft" activeCell="K103" sqref="K103"/>
+      <selection pane="bottomLeft" activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1505,7 +1508,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>33.934000000000005</v>
+        <v>35.184000000000005</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1515,7 +1518,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>38.167000000000002</v>
+        <v>38.417000000000002</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3623,15 +3626,17 @@
       <c r="B103" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C103" s="14"/>
+      <c r="C103" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D103" s="12">
         <v>5</v>
       </c>
       <c r="E103" s="9"/>
       <c r="F103" s="12"/>
-      <c r="G103" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G103" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H103" s="12"/>
       <c r="I103" s="9"/>
@@ -3641,24 +3646,30 @@
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="24"/>
-      <c r="B104" s="12"/>
+      <c r="A104" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B104" s="21"/>
       <c r="C104" s="14"/>
-      <c r="D104" s="12"/>
+      <c r="D104" s="39"/>
       <c r="E104" s="9"/>
-      <c r="F104" s="12"/>
+      <c r="F104" s="21"/>
       <c r="G104" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H104" s="12"/>
+      <c r="H104" s="39"/>
       <c r="I104" s="9"/>
       <c r="J104" s="12"/>
       <c r="K104" s="21"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="24"/>
-      <c r="B105" s="12"/>
+      <c r="A105" s="24">
+        <v>45292</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="C105" s="14"/>
       <c r="D105" s="12"/>
       <c r="E105" s="9"/>
@@ -3667,13 +3678,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H105" s="12"/>
+      <c r="H105" s="12">
+        <v>1</v>
+      </c>
       <c r="I105" s="9"/>
       <c r="J105" s="12"/>
-      <c r="K105" s="21"/>
+      <c r="K105" s="38">
+        <v>45303</v>
+      </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="24"/>
+      <c r="A106" s="24">
+        <v>45323</v>
+      </c>
       <c r="B106" s="12"/>
       <c r="C106" s="14"/>
       <c r="D106" s="12"/>
@@ -3689,7 +3706,9 @@
       <c r="K106" s="21"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="24"/>
+      <c r="A107" s="24">
+        <v>45352</v>
+      </c>
       <c r="B107" s="12"/>
       <c r="C107" s="14"/>
       <c r="D107" s="12"/>
@@ -3705,7 +3724,9 @@
       <c r="K107" s="21"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="24"/>
+      <c r="A108" s="24">
+        <v>45383</v>
+      </c>
       <c r="B108" s="12"/>
       <c r="C108" s="14"/>
       <c r="D108" s="12"/>
@@ -3721,7 +3742,9 @@
       <c r="K108" s="21"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="24"/>
+      <c r="A109" s="24">
+        <v>45413</v>
+      </c>
       <c r="B109" s="12"/>
       <c r="C109" s="14"/>
       <c r="D109" s="12"/>
@@ -3786,19 +3809,19 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="24"/>
-      <c r="B113" s="13"/>
+      <c r="B113" s="12"/>
       <c r="C113" s="14"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="13"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="12"/>
       <c r="G113" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H113" s="13"/>
-      <c r="I113" s="10"/>
-      <c r="J113" s="13"/>
-      <c r="K113" s="16"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="12"/>
+      <c r="K113" s="21"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="24"/>
@@ -3811,10 +3834,10 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H114" s="12"/>
-      <c r="I114" s="9"/>
-      <c r="J114" s="12"/>
-      <c r="K114" s="21"/>
+      <c r="H114" s="13"/>
+      <c r="I114" s="10"/>
+      <c r="J114" s="13"/>
+      <c r="K114" s="16"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="24"/>
@@ -3971,26 +3994,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H124" s="13"/>
-      <c r="I124" s="10"/>
-      <c r="J124" s="13"/>
-      <c r="K124" s="16"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="12"/>
+      <c r="K124" s="21"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="24"/>
-      <c r="B125" s="12"/>
+      <c r="B125" s="13"/>
       <c r="C125" s="14"/>
-      <c r="D125" s="12"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="12"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="13"/>
       <c r="G125" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H125" s="12"/>
-      <c r="I125" s="9"/>
-      <c r="J125" s="12"/>
-      <c r="K125" s="21"/>
+      <c r="H125" s="13"/>
+      <c r="I125" s="10"/>
+      <c r="J125" s="13"/>
+      <c r="K125" s="16"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="24"/>
@@ -4042,19 +4065,35 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="24"/>
-      <c r="B129" s="13"/>
+      <c r="B129" s="12"/>
       <c r="C129" s="14"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="13"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="12"/>
       <c r="G129" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H129" s="13"/>
-      <c r="I129" s="10"/>
-      <c r="J129" s="13"/>
-      <c r="K129" s="16"/>
+      <c r="H129" s="12"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="12"/>
+      <c r="K129" s="21"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="24"/>
+      <c r="B130" s="13"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="13"/>
+      <c r="G130" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="13"/>
+      <c r="I130" s="10"/>
+      <c r="J130" s="13"/>
+      <c r="K130" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4229,7 +4268,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="43">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>72.100999999999999</v>
+        <v>73.600999999999999</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>

--- a/CASUAL/LA DSWD-CCR/DE CASTRO, CHRISTINE JEAN.xlsx
+++ b/CASUAL/LA DSWD-CCR/DE CASTRO, CHRISTINE JEAN.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="98">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1009,7 +1009,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1338,12 +1338,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K130"/>
+  <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A88" activePane="bottomLeft"/>
       <selection activeCell="B1" sqref="B1:C1"/>
-      <selection pane="bottomLeft" activeCell="D105" sqref="D105"/>
+      <selection pane="bottomLeft" activeCell="K106" sqref="K106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1518,7 +1518,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>38.417000000000002</v>
+        <v>37.417000000000002</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3688,26 +3688,30 @@
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="24">
-        <v>45323</v>
-      </c>
-      <c r="B106" s="12"/>
+      <c r="A106" s="24"/>
+      <c r="B106" s="21" t="s">
+        <v>38</v>
+      </c>
       <c r="C106" s="14"/>
-      <c r="D106" s="12"/>
+      <c r="D106" s="39"/>
       <c r="E106" s="9"/>
-      <c r="F106" s="12"/>
+      <c r="F106" s="21"/>
       <c r="G106" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H106" s="12"/>
+      <c r="H106" s="39">
+        <v>1</v>
+      </c>
       <c r="I106" s="9"/>
       <c r="J106" s="12"/>
-      <c r="K106" s="21"/>
+      <c r="K106" s="38">
+        <v>45314</v>
+      </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="24">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B107" s="12"/>
       <c r="C107" s="14"/>
@@ -3725,7 +3729,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="24">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B108" s="12"/>
       <c r="C108" s="14"/>
@@ -3743,7 +3747,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="24">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B109" s="12"/>
       <c r="C109" s="14"/>
@@ -3760,7 +3764,9 @@
       <c r="K109" s="21"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="24"/>
+      <c r="A110" s="24">
+        <v>45413</v>
+      </c>
       <c r="B110" s="12"/>
       <c r="C110" s="14"/>
       <c r="D110" s="12"/>
@@ -3825,19 +3831,19 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="24"/>
-      <c r="B114" s="13"/>
+      <c r="B114" s="12"/>
       <c r="C114" s="14"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="13"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="12"/>
       <c r="G114" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H114" s="13"/>
-      <c r="I114" s="10"/>
-      <c r="J114" s="13"/>
-      <c r="K114" s="16"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="21"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="24"/>
@@ -3850,10 +3856,10 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H115" s="12"/>
-      <c r="I115" s="9"/>
-      <c r="J115" s="12"/>
-      <c r="K115" s="21"/>
+      <c r="H115" s="13"/>
+      <c r="I115" s="10"/>
+      <c r="J115" s="13"/>
+      <c r="K115" s="16"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="24"/>
@@ -4010,26 +4016,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H125" s="13"/>
-      <c r="I125" s="10"/>
-      <c r="J125" s="13"/>
-      <c r="K125" s="16"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="12"/>
+      <c r="K125" s="21"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="24"/>
-      <c r="B126" s="12"/>
+      <c r="B126" s="13"/>
       <c r="C126" s="14"/>
-      <c r="D126" s="12"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="12"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="13"/>
       <c r="G126" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H126" s="12"/>
-      <c r="I126" s="9"/>
-      <c r="J126" s="12"/>
-      <c r="K126" s="21"/>
+      <c r="H126" s="13"/>
+      <c r="I126" s="10"/>
+      <c r="J126" s="13"/>
+      <c r="K126" s="16"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="24"/>
@@ -4081,19 +4087,35 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="24"/>
-      <c r="B130" s="13"/>
+      <c r="B130" s="12"/>
       <c r="C130" s="14"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="13"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="12"/>
       <c r="G130" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H130" s="13"/>
-      <c r="I130" s="10"/>
-      <c r="J130" s="13"/>
-      <c r="K130" s="16"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="21"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="24"/>
+      <c r="B131" s="13"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="13"/>
+      <c r="G131" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="13"/>
+      <c r="I131" s="10"/>
+      <c r="J131" s="13"/>
+      <c r="K131" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4268,7 +4290,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="43">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>73.600999999999999</v>
+        <v>72.600999999999999</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>

--- a/CASUAL/LA DSWD-CCR/DE CASTRO, CHRISTINE JEAN.xlsx
+++ b/CASUAL/LA DSWD-CCR/DE CASTRO, CHRISTINE JEAN.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="100">
   <si>
     <t>PERIOD</t>
   </si>
@@ -327,6 +327,12 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>SP(3-0-0)</t>
+  </si>
+  <si>
+    <t>02/19,22,23/2024</t>
   </si>
 </sst>
 </file>
@@ -1341,9 +1347,9 @@
   <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A88" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A91" activePane="bottomLeft"/>
       <selection activeCell="B1" sqref="B1:C1"/>
-      <selection pane="bottomLeft" activeCell="K106" sqref="K106"/>
+      <selection pane="bottomLeft" activeCell="J107" sqref="J107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1508,7 +1514,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>35.184000000000005</v>
+        <v>36.434000000000005</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1518,7 +1524,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>37.417000000000002</v>
+        <v>38.667000000000002</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3670,13 +3676,15 @@
       <c r="B105" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C105" s="14"/>
+      <c r="C105" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D105" s="12"/>
       <c r="E105" s="9"/>
       <c r="F105" s="12"/>
-      <c r="G105" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G105" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H105" s="12">
         <v>1</v>
@@ -3713,7 +3721,9 @@
       <c r="A107" s="24">
         <v>45323</v>
       </c>
-      <c r="B107" s="12"/>
+      <c r="B107" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="C107" s="14"/>
       <c r="D107" s="12"/>
       <c r="E107" s="9"/>
@@ -3725,7 +3735,9 @@
       <c r="H107" s="12"/>
       <c r="I107" s="9"/>
       <c r="J107" s="12"/>
-      <c r="K107" s="21"/>
+      <c r="K107" s="21" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="24">
@@ -4290,7 +4302,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="43">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>72.600999999999999</v>
+        <v>75.100999999999999</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>
